--- a/MultiGroupBeamforming/1.xlsx
+++ b/MultiGroupBeamforming/1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayswarya\Documents\GitHub\friendly-octo-eureka\MultiGroupBeamforming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apadmana\Desktop\GitHub\urban-barnacle\MultiGroupBeamforming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="TwoGroupEigen" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>nTransmit</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Eigen</t>
   </si>
   <si>
-    <t>ZF</t>
-  </si>
-  <si>
     <t>[36:4:48]</t>
   </si>
   <si>
@@ -74,28 +71,28 @@
     <t>One Groups ZF</t>
   </si>
   <si>
-    <t>CVXG_Opt</t>
-  </si>
-  <si>
     <t>[16:4:32]</t>
   </si>
   <si>
     <t>frequency</t>
   </si>
   <si>
-    <t>[4,4]</t>
-  </si>
-  <si>
     <t>limitToGroupBeamsOnly</t>
   </si>
   <si>
-    <t>BEAMS</t>
+    <t>[4,4,4,4]</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>CVX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,11 +549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,16 +564,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,7 +609,7 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8">
         <v>300000000</v>
@@ -643,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>500</v>
@@ -677,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -691,13 +688,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,13 +702,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,18 +716,18 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="b">
         <v>1</v>
